--- a/data-viz/inputs/report_outline.xlsx
+++ b/data-viz/inputs/report_outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-gpp-report\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{13A57FCE-7864-455D-AFD4-B1CB65CA5A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F09B5F8-DA06-4695-8DB2-7BFD58142375}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6486F-776D-4B3A-9DD2-F46ADDF8F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6CDB5189-70D4-4DC8-80AA-E85435BE4D53}"/>
+    <workbookView xWindow="3600" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{6CDB5189-70D4-4DC8-80AA-E85435BE4D53}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="1071">
   <si>
     <t>ID</t>
   </si>
@@ -3248,6 +3248,21 @@
   </si>
   <si>
     <t>1, 2</t>
+  </si>
+  <si>
+    <t>CPB_community</t>
+  </si>
+  <si>
+    <t>CPB_freeassem</t>
+  </si>
+  <si>
+    <t>CPB_unions</t>
+  </si>
+  <si>
+    <t>CPA_cleanelec_local</t>
+  </si>
+  <si>
+    <t>Freedom</t>
   </si>
 </sst>
 </file>
@@ -3354,38 +3369,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3403,10 +3415,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3709,27 +3717,27 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="73.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.36328125" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="73.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
     <col min="10" max="10" width="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="212.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="212.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1046</v>
       </c>
@@ -3767,11 +3775,11 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3795,21 +3803,21 @@
       <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3833,21 +3841,21 @@
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3871,21 +3879,21 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3909,21 +3917,21 @@
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3945,21 +3953,21 @@
       <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3981,21 +3989,21 @@
       <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -4017,21 +4025,21 @@
       <c r="I8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4053,18 +4061,18 @@
       <c r="I9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4076,7 +4084,7 @@
       <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -4089,18 +4097,18 @@
       <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4112,7 +4120,7 @@
       <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -4125,18 +4133,18 @@
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4148,7 +4156,7 @@
       <c r="D12" s="6">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -4161,18 +4169,18 @@
       <c r="I12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -4184,7 +4192,7 @@
       <c r="D13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4197,18 +4205,18 @@
       <c r="I13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -4220,7 +4228,7 @@
       <c r="D14" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -4233,18 +4241,18 @@
       <c r="I14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4256,7 +4264,7 @@
       <c r="D15" s="6">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -4269,18 +4277,18 @@
       <c r="I15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -4305,18 +4313,18 @@
       <c r="I16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -4328,7 +4336,7 @@
       <c r="D17" s="6">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -4341,18 +4349,18 @@
       <c r="I17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -4364,7 +4372,7 @@
       <c r="D18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -4377,18 +4385,18 @@
       <c r="I18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>75</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -4400,7 +4408,7 @@
       <c r="D19" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -4413,7 +4421,7 @@
       <c r="I19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>81</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -4423,8 +4431,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -4436,7 +4444,7 @@
       <c r="D20" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -4449,7 +4457,7 @@
       <c r="I20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>86</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -4459,8 +4467,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4472,20 +4480,20 @@
       <c r="D21" s="6">
         <v>20</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>89</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>90</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -4495,8 +4503,8 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -4508,7 +4516,7 @@
       <c r="D22" s="6">
         <v>21</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -4521,7 +4529,7 @@
       <c r="I22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>95</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -4531,8 +4539,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4544,7 +4552,7 @@
       <c r="D23" s="6">
         <v>22</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -4557,7 +4565,7 @@
       <c r="I23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>100</v>
       </c>
       <c r="K23" s="6" t="s">
@@ -4567,8 +4575,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -4580,7 +4588,7 @@
       <c r="D24" s="6">
         <v>23</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -4593,7 +4601,7 @@
       <c r="I24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -4603,8 +4611,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4616,7 +4624,7 @@
       <c r="D25" s="6">
         <v>24</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -4629,7 +4637,7 @@
       <c r="I25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K25" s="6" t="s">
@@ -4639,8 +4647,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4652,7 +4660,7 @@
       <c r="D26" s="6">
         <v>25</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -4665,7 +4673,7 @@
       <c r="I26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -4675,8 +4683,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -4688,7 +4696,7 @@
       <c r="D27" s="6">
         <v>26</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -4701,7 +4709,7 @@
       <c r="I27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>119</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -4711,8 +4719,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4724,7 +4732,7 @@
       <c r="D28" s="6">
         <v>27</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -4737,7 +4745,7 @@
       <c r="I28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>124</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -4747,8 +4755,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -4760,7 +4768,7 @@
       <c r="D29" s="6">
         <v>28</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>126</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -4773,7 +4781,7 @@
       <c r="I29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>129</v>
       </c>
       <c r="K29" s="6" t="s">
@@ -4783,8 +4791,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -4796,7 +4804,7 @@
       <c r="D30" s="6">
         <v>29</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>131</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -4809,7 +4817,7 @@
       <c r="I30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>133</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -4819,8 +4827,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4832,7 +4840,7 @@
       <c r="D31" s="6">
         <v>30</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>137</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -4845,18 +4853,18 @@
       <c r="I31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>141</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -4881,18 +4889,18 @@
       <c r="I32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>145</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4917,18 +4925,18 @@
       <c r="I33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4953,18 +4961,18 @@
       <c r="I34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>154</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4989,18 +4997,18 @@
       <c r="I35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>158</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -5025,18 +5033,18 @@
       <c r="I36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>162</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5061,18 +5069,18 @@
       <c r="I37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>166</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -5097,18 +5105,18 @@
       <c r="I38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>170</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -5133,18 +5141,18 @@
       <c r="I39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="8" t="s">
         <v>174</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -5169,18 +5177,18 @@
       <c r="I40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>179</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -5205,18 +5213,18 @@
       <c r="I41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>183</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -5241,18 +5249,18 @@
       <c r="I42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="8" t="s">
         <v>187</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5277,18 +5285,18 @@
       <c r="I43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>191</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -5313,18 +5321,18 @@
       <c r="I44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="8" t="s">
         <v>195</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5336,7 +5344,7 @@
       <c r="D45" s="6">
         <v>44</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>196</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -5349,18 +5357,18 @@
       <c r="I45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="8" t="s">
         <v>199</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -5385,18 +5393,18 @@
       <c r="I46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="8" t="s">
         <v>199</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -5408,7 +5416,7 @@
       <c r="D47" s="6">
         <v>46</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -5421,18 +5429,18 @@
       <c r="I47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="8" t="s">
         <v>206</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5444,7 +5452,7 @@
       <c r="D48" s="6">
         <v>47</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>207</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -5457,18 +5465,18 @@
       <c r="I48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="K48" s="8" t="s">
         <v>210</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5480,7 +5488,7 @@
       <c r="D49" s="6">
         <v>48</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>211</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -5493,18 +5501,18 @@
       <c r="I49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -5516,7 +5524,7 @@
       <c r="D50" s="6">
         <v>49</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>216</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -5529,18 +5537,18 @@
       <c r="I50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>219</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5552,7 +5560,7 @@
       <c r="D51" s="6">
         <v>50</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>220</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -5565,18 +5573,18 @@
       <c r="I51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="8" t="s">
         <v>223</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5588,7 +5596,7 @@
       <c r="D52" s="6">
         <v>51</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>224</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -5601,18 +5609,18 @@
       <c r="I52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="8" t="s">
         <v>227</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -5637,18 +5645,18 @@
       <c r="I53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K53" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5673,18 +5681,18 @@
       <c r="I54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="8" t="s">
         <v>236</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5709,18 +5717,18 @@
       <c r="I55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="K55" s="8" t="s">
         <v>240</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -5732,7 +5740,7 @@
       <c r="D56" s="6">
         <v>55</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -5745,18 +5753,18 @@
       <c r="I56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="8" t="s">
         <v>244</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -5768,7 +5776,7 @@
       <c r="D57" s="6">
         <v>56</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>245</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -5781,18 +5789,18 @@
       <c r="I57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="8" t="s">
         <v>248</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5817,18 +5825,18 @@
       <c r="I58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="8" t="s">
         <v>252</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5840,7 +5848,7 @@
       <c r="D59" s="6">
         <v>58</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>253</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -5853,18 +5861,18 @@
       <c r="I59" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="8" t="s">
         <v>256</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -5889,7 +5897,7 @@
       <c r="I60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="8" t="s">
         <v>262</v>
       </c>
       <c r="K60" s="6" t="s">
@@ -5899,8 +5907,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -5925,7 +5933,7 @@
       <c r="I61" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="8" t="s">
         <v>266</v>
       </c>
       <c r="K61" s="6" t="s">
@@ -5935,8 +5943,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -5961,7 +5969,7 @@
       <c r="I62" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="8" t="s">
         <v>270</v>
       </c>
       <c r="K62" s="6" t="s">
@@ -5971,8 +5979,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -5997,7 +6005,7 @@
       <c r="I63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="8" t="s">
         <v>274</v>
       </c>
       <c r="K63" s="6" t="s">
@@ -6007,8 +6015,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -6033,7 +6041,7 @@
       <c r="I64" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="8" t="s">
         <v>278</v>
       </c>
       <c r="K64" s="6" t="s">
@@ -6043,8 +6051,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -6069,7 +6077,7 @@
       <c r="I65" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>282</v>
       </c>
       <c r="K65" s="6" t="s">
@@ -6079,8 +6087,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -6105,7 +6113,7 @@
       <c r="I66" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>286</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -6115,8 +6123,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -6141,7 +6149,7 @@
       <c r="I67" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>290</v>
       </c>
       <c r="K67" s="6" t="s">
@@ -6151,8 +6159,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -6177,7 +6185,7 @@
       <c r="I68" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="8" t="s">
         <v>294</v>
       </c>
       <c r="K68" s="6" t="s">
@@ -6187,8 +6195,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -6213,7 +6221,7 @@
       <c r="I69" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="8" t="s">
         <v>299</v>
       </c>
       <c r="K69" s="6" t="s">
@@ -6223,8 +6231,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -6249,7 +6257,7 @@
       <c r="I70" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="8" t="s">
         <v>303</v>
       </c>
       <c r="K70" s="6" t="s">
@@ -6259,8 +6267,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -6285,7 +6293,7 @@
       <c r="I71" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>307</v>
       </c>
       <c r="K71" s="6" t="s">
@@ -6295,8 +6303,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -6321,7 +6329,7 @@
       <c r="I72" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="8" t="s">
         <v>311</v>
       </c>
       <c r="K72" s="6" t="s">
@@ -6331,8 +6339,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -6357,7 +6365,7 @@
       <c r="I73" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>315</v>
       </c>
       <c r="K73" s="6" t="s">
@@ -6367,8 +6375,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -6393,7 +6401,7 @@
       <c r="I74" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>319</v>
       </c>
       <c r="K74" s="6" t="s">
@@ -6403,8 +6411,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -6416,7 +6424,7 @@
       <c r="D75" s="6">
         <v>74</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>322</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -6429,7 +6437,7 @@
       <c r="I75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="8" t="s">
         <v>324</v>
       </c>
       <c r="K75" s="6" t="s">
@@ -6439,8 +6447,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -6452,7 +6460,7 @@
       <c r="D76" s="6">
         <v>75</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>326</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -6465,7 +6473,7 @@
       <c r="I76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>328</v>
       </c>
       <c r="K76" s="6" t="s">
@@ -6475,8 +6483,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -6501,7 +6509,7 @@
       <c r="I77" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="8" t="s">
         <v>332</v>
       </c>
       <c r="K77" s="6" t="s">
@@ -6511,8 +6519,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -6537,7 +6545,7 @@
       <c r="I78" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="8" t="s">
         <v>336</v>
       </c>
       <c r="K78" s="6" t="s">
@@ -6547,8 +6555,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -6573,7 +6581,7 @@
       <c r="I79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>340</v>
       </c>
       <c r="K79" s="6" t="s">
@@ -6583,8 +6591,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -6596,7 +6604,7 @@
       <c r="D80" s="6">
         <v>79</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>344</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -6609,7 +6617,7 @@
       <c r="I80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>346</v>
       </c>
       <c r="K80" s="6" t="s">
@@ -6619,8 +6627,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -6632,7 +6640,7 @@
       <c r="D81" s="6">
         <v>80</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>348</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -6645,7 +6653,7 @@
       <c r="I81" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="8" t="s">
         <v>350</v>
       </c>
       <c r="K81" s="6" t="s">
@@ -6655,8 +6663,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -6668,7 +6676,7 @@
       <c r="D82" s="6">
         <v>81</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>352</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -6681,7 +6689,7 @@
       <c r="I82" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>354</v>
       </c>
       <c r="K82" s="6" t="s">
@@ -6691,8 +6699,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -6704,7 +6712,7 @@
       <c r="D83" s="6">
         <v>82</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>356</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -6717,7 +6725,7 @@
       <c r="I83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>358</v>
       </c>
       <c r="K83" s="6" t="s">
@@ -6727,8 +6735,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -6740,7 +6748,7 @@
       <c r="D84" s="6">
         <v>83</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>360</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -6753,7 +6761,7 @@
       <c r="I84" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>362</v>
       </c>
       <c r="K84" s="6" t="s">
@@ -6763,8 +6771,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -6776,7 +6784,7 @@
       <c r="D85" s="6">
         <v>84</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="9" t="s">
         <v>364</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -6789,7 +6797,7 @@
       <c r="I85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="8" t="s">
         <v>366</v>
       </c>
       <c r="K85" s="6" t="s">
@@ -6799,8 +6807,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -6812,7 +6820,7 @@
       <c r="D86" s="6">
         <v>85</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="9" t="s">
         <v>369</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -6825,7 +6833,7 @@
       <c r="I86" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="8" t="s">
         <v>371</v>
       </c>
       <c r="K86" s="6" t="s">
@@ -6835,8 +6843,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -6848,7 +6856,7 @@
       <c r="D87" s="6">
         <v>86</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="9" t="s">
         <v>373</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -6861,7 +6869,7 @@
       <c r="I87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="8" t="s">
         <v>375</v>
       </c>
       <c r="K87" s="6" t="s">
@@ -6871,8 +6879,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -6884,7 +6892,7 @@
       <c r="D88" s="6">
         <v>87</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="9" t="s">
         <v>377</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -6897,7 +6905,7 @@
       <c r="I88" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="8" t="s">
         <v>379</v>
       </c>
       <c r="K88" s="6" t="s">
@@ -6907,8 +6915,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -6920,7 +6928,7 @@
       <c r="D89" s="6">
         <v>88</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="9" t="s">
         <v>381</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -6933,7 +6941,7 @@
       <c r="I89" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="8" t="s">
         <v>383</v>
       </c>
       <c r="K89" s="6" t="s">
@@ -6943,8 +6951,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -6956,20 +6964,22 @@
       <c r="D90" s="6">
         <v>89</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="9" t="s">
         <v>385</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="G90" s="6"/>
+        <v>1066</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>1070</v>
+      </c>
       <c r="H90" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="8" t="s">
         <v>387</v>
       </c>
       <c r="K90" s="6" t="s">
@@ -6979,8 +6989,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -6992,20 +7002,22 @@
       <c r="D91" s="6">
         <v>90</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="13" t="s">
         <v>389</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G91" s="6"/>
+        <v>1067</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>1070</v>
+      </c>
       <c r="H91" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="8" t="s">
         <v>391</v>
       </c>
       <c r="K91" s="6" t="s">
@@ -7015,8 +7027,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -7028,20 +7040,22 @@
       <c r="D92" s="6">
         <v>91</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="9" t="s">
         <v>393</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>1068</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>1070</v>
+      </c>
       <c r="H92" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="8" t="s">
         <v>395</v>
       </c>
       <c r="K92" s="6" t="s">
@@ -7051,8 +7065,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -7064,20 +7078,22 @@
       <c r="D93" s="6">
         <v>92</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="9" t="s">
         <v>398</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>1069</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>1070</v>
+      </c>
       <c r="H93" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="8" t="s">
         <v>400</v>
       </c>
       <c r="K93" s="6" t="s">
@@ -7087,8 +7103,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -7100,7 +7116,7 @@
       <c r="D94" s="6">
         <v>93</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="9" t="s">
         <v>402</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -7113,7 +7129,7 @@
       <c r="I94" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K94" s="6" t="s">
@@ -7123,8 +7139,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -7149,7 +7165,7 @@
       <c r="I95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="8" t="s">
         <v>409</v>
       </c>
       <c r="K95" s="6" t="s">
@@ -7159,8 +7175,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -7185,7 +7201,7 @@
       <c r="I96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J96" s="8" t="s">
         <v>413</v>
       </c>
       <c r="K96" s="6" t="s">
@@ -7195,8 +7211,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -7221,7 +7237,7 @@
       <c r="I97" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="8" t="s">
         <v>417</v>
       </c>
       <c r="K97" s="6" t="s">
@@ -7231,8 +7247,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -7257,7 +7273,7 @@
       <c r="I98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="8" t="s">
         <v>421</v>
       </c>
       <c r="K98" s="6" t="s">
@@ -7267,8 +7283,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -7293,7 +7309,7 @@
       <c r="I99" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="8" t="s">
         <v>425</v>
       </c>
       <c r="K99" s="6" t="s">
@@ -7303,8 +7319,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -7316,7 +7332,7 @@
       <c r="D100" s="6">
         <v>99</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="9" t="s">
         <v>427</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -7329,18 +7345,18 @@
       <c r="I100" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J100" s="9" t="s">
+      <c r="J100" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="K100" s="8" t="s">
         <v>430</v>
       </c>
       <c r="L100" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -7352,7 +7368,7 @@
       <c r="D101" s="6">
         <v>100</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="9" t="s">
         <v>431</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -7365,18 +7381,18 @@
       <c r="I101" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="K101" s="9" t="s">
+      <c r="K101" s="8" t="s">
         <v>434</v>
       </c>
       <c r="L101" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -7401,18 +7417,18 @@
       <c r="I102" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J102" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="K102" s="9" t="s">
+      <c r="K102" s="8" t="s">
         <v>439</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -7437,18 +7453,18 @@
       <c r="I103" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J103" s="9" t="s">
+      <c r="J103" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="K103" s="9" t="s">
+      <c r="K103" s="8" t="s">
         <v>443</v>
       </c>
       <c r="L103" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -7473,18 +7489,18 @@
       <c r="I104" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="J104" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="K104" s="9" t="s">
+      <c r="K104" s="8" t="s">
         <v>447</v>
       </c>
       <c r="L104" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -7509,18 +7525,18 @@
       <c r="I105" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J105" s="9" t="s">
+      <c r="J105" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="K105" s="9" t="s">
+      <c r="K105" s="8" t="s">
         <v>451</v>
       </c>
       <c r="L105" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -7545,18 +7561,18 @@
       <c r="I106" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J106" s="9" t="s">
+      <c r="J106" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="K106" s="9" t="s">
+      <c r="K106" s="8" t="s">
         <v>455</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -7581,18 +7597,18 @@
       <c r="I107" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J107" s="9" t="s">
+      <c r="J107" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="K107" s="9" t="s">
+      <c r="K107" s="8" t="s">
         <v>459</v>
       </c>
       <c r="L107" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -7617,18 +7633,18 @@
       <c r="I108" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J108" s="9" t="s">
+      <c r="J108" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="K108" s="9" t="s">
+      <c r="K108" s="8" t="s">
         <v>463</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -7653,18 +7669,18 @@
       <c r="I109" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J109" s="9" t="s">
+      <c r="J109" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="K109" s="8" t="s">
         <v>467</v>
       </c>
       <c r="L109" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -7689,18 +7705,18 @@
       <c r="I110" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J110" s="9" t="s">
+      <c r="J110" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="K110" s="9" t="s">
+      <c r="K110" s="8" t="s">
         <v>471</v>
       </c>
       <c r="L110" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -7725,18 +7741,18 @@
       <c r="I111" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="9" t="s">
+      <c r="J111" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="K111" s="8" t="s">
         <v>475</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -7761,18 +7777,18 @@
       <c r="I112" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J112" s="9" t="s">
+      <c r="J112" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="K112" s="9" t="s">
+      <c r="K112" s="8" t="s">
         <v>479</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -7791,24 +7807,24 @@
         <v>481</v>
       </c>
       <c r="G113" s="6"/>
-      <c r="H113" s="12" t="s">
+      <c r="H113" s="11" t="s">
         <v>482</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="J113" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="K113" s="8" t="s">
         <v>484</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -7833,7 +7849,7 @@
       <c r="I114" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J114" s="9" t="s">
+      <c r="J114" s="8" t="s">
         <v>491</v>
       </c>
       <c r="K114" s="6" t="s">
@@ -7843,8 +7859,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -7869,7 +7885,7 @@
       <c r="I115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J115" s="9" t="s">
+      <c r="J115" s="8" t="s">
         <v>495</v>
       </c>
       <c r="K115" s="6" t="s">
@@ -7879,8 +7895,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B116" s="7" t="s">
@@ -7905,7 +7921,7 @@
       <c r="I116" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J116" s="9" t="s">
+      <c r="J116" s="8" t="s">
         <v>499</v>
       </c>
       <c r="K116" s="6" t="s">
@@ -7915,8 +7931,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B117" s="7" t="s">
@@ -7941,7 +7957,7 @@
       <c r="I117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J117" s="9" t="s">
+      <c r="J117" s="8" t="s">
         <v>503</v>
       </c>
       <c r="K117" s="6" t="s">
@@ -7951,8 +7967,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -7977,7 +7993,7 @@
       <c r="I118" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J118" s="9" t="s">
+      <c r="J118" s="8" t="s">
         <v>507</v>
       </c>
       <c r="K118" s="6" t="s">
@@ -7987,8 +8003,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B119" s="7" t="s">
@@ -8013,7 +8029,7 @@
       <c r="I119" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J119" s="8" t="s">
         <v>511</v>
       </c>
       <c r="K119" s="6" t="s">
@@ -8023,8 +8039,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B120" s="7" t="s">
@@ -8036,7 +8052,7 @@
       <c r="D120" s="6">
         <v>119</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="9" t="s">
         <v>514</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -8049,7 +8065,7 @@
       <c r="I120" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="9" t="s">
+      <c r="J120" s="8" t="s">
         <v>516</v>
       </c>
       <c r="K120" s="6" t="s">
@@ -8059,8 +8075,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -8085,7 +8101,7 @@
       <c r="I121" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J121" s="9" t="s">
+      <c r="J121" s="8" t="s">
         <v>520</v>
       </c>
       <c r="K121" s="6" t="s">
@@ -8095,8 +8111,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B122" s="7" t="s">
@@ -8121,7 +8137,7 @@
       <c r="I122" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J122" s="9" t="s">
+      <c r="J122" s="8" t="s">
         <v>524</v>
       </c>
       <c r="K122" s="6" t="s">
@@ -8131,8 +8147,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B123" s="7" t="s">
@@ -8157,7 +8173,7 @@
       <c r="I123" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="8" t="s">
         <v>526</v>
       </c>
       <c r="K123" s="6" t="s">
@@ -8167,8 +8183,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B124" s="7" t="s">
@@ -8193,7 +8209,7 @@
       <c r="I124" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J124" s="9" t="s">
+      <c r="J124" s="8" t="s">
         <v>528</v>
       </c>
       <c r="K124" s="6" t="s">
@@ -8203,8 +8219,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B125" s="7" t="s">
@@ -8229,7 +8245,7 @@
       <c r="I125" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J125" s="9" t="s">
+      <c r="J125" s="8" t="s">
         <v>530</v>
       </c>
       <c r="K125" s="6" t="s">
@@ -8239,8 +8255,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B126" s="7" t="s">
@@ -8265,7 +8281,7 @@
       <c r="I126" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J126" s="9" t="s">
+      <c r="J126" s="8" t="s">
         <v>531</v>
       </c>
       <c r="K126" s="6" t="s">
@@ -8275,8 +8291,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B127" s="7" t="s">
@@ -8301,7 +8317,7 @@
       <c r="I127" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J127" s="9" t="s">
+      <c r="J127" s="8" t="s">
         <v>534</v>
       </c>
       <c r="K127" s="6" t="s">
@@ -8311,8 +8327,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -8337,7 +8353,7 @@
       <c r="I128" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J128" s="9" t="s">
+      <c r="J128" s="8" t="s">
         <v>538</v>
       </c>
       <c r="K128" s="6" t="s">
@@ -8347,8 +8363,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B129" s="7" t="s">
@@ -8373,7 +8389,7 @@
       <c r="I129" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="J129" s="8" t="s">
         <v>542</v>
       </c>
       <c r="K129" s="6" t="s">
@@ -8383,8 +8399,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B130" s="7" t="s">
@@ -8409,7 +8425,7 @@
       <c r="I130" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J130" s="9" t="s">
+      <c r="J130" s="8" t="s">
         <v>546</v>
       </c>
       <c r="K130" s="6" t="s">
@@ -8419,8 +8435,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B131" s="7" t="s">
@@ -8445,7 +8461,7 @@
       <c r="I131" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J131" s="9" t="s">
+      <c r="J131" s="8" t="s">
         <v>551</v>
       </c>
       <c r="K131" s="6" t="s">
@@ -8455,8 +8471,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B132" s="7" t="s">
@@ -8481,7 +8497,7 @@
       <c r="I132" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J132" s="9" t="s">
+      <c r="J132" s="8" t="s">
         <v>555</v>
       </c>
       <c r="K132" s="6" t="s">
@@ -8491,8 +8507,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B133" s="7" t="s">
@@ -8517,7 +8533,7 @@
       <c r="I133" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J133" s="9" t="s">
+      <c r="J133" s="8" t="s">
         <v>559</v>
       </c>
       <c r="K133" s="6" t="s">
@@ -8527,8 +8543,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="8" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B134" s="7" t="s">
@@ -8553,7 +8569,7 @@
       <c r="I134" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J134" s="9" t="s">
+      <c r="J134" s="8" t="s">
         <v>563</v>
       </c>
       <c r="K134" s="6" t="s">
@@ -8563,8 +8579,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -8589,7 +8605,7 @@
       <c r="I135" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J135" s="9" t="s">
+      <c r="J135" s="8" t="s">
         <v>567</v>
       </c>
       <c r="K135" s="6" t="s">
@@ -8599,8 +8615,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -8612,7 +8628,7 @@
       <c r="D136" s="6">
         <v>135</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="E136" s="12" t="s">
         <v>571</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -8625,7 +8641,7 @@
       <c r="I136" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J136" s="9" t="s">
+      <c r="J136" s="8" t="s">
         <v>573</v>
       </c>
       <c r="K136" s="6" t="s">
@@ -8635,8 +8651,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B137" s="7" t="s">
@@ -8648,7 +8664,7 @@
       <c r="D137" s="6">
         <v>136</v>
       </c>
-      <c r="E137" s="13" t="s">
+      <c r="E137" s="12" t="s">
         <v>575</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -8661,7 +8677,7 @@
       <c r="I137" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J137" s="9" t="s">
+      <c r="J137" s="8" t="s">
         <v>577</v>
       </c>
       <c r="K137" s="6" t="s">
@@ -8671,8 +8687,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B138" s="7" t="s">
@@ -8684,7 +8700,7 @@
       <c r="D138" s="6">
         <v>137</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="E138" s="12" t="s">
         <v>579</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -8697,7 +8713,7 @@
       <c r="I138" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J138" s="9" t="s">
+      <c r="J138" s="8" t="s">
         <v>581</v>
       </c>
       <c r="K138" s="6" t="s">
@@ -8707,8 +8723,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -8720,7 +8736,7 @@
       <c r="D139" s="6">
         <v>138</v>
       </c>
-      <c r="E139" s="13" t="s">
+      <c r="E139" s="12" t="s">
         <v>583</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -8733,7 +8749,7 @@
       <c r="I139" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J139" s="9" t="s">
+      <c r="J139" s="8" t="s">
         <v>585</v>
       </c>
       <c r="K139" s="6" t="s">
@@ -8743,8 +8759,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -8756,7 +8772,7 @@
       <c r="D140" s="6">
         <v>139</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="E140" s="12" t="s">
         <v>588</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -8769,7 +8785,7 @@
       <c r="I140" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J140" s="9" t="s">
+      <c r="J140" s="8" t="s">
         <v>591</v>
       </c>
       <c r="K140" s="6" t="s">
@@ -8779,8 +8795,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -8792,7 +8808,7 @@
       <c r="D141" s="6">
         <v>140</v>
       </c>
-      <c r="E141" s="13" t="s">
+      <c r="E141" s="12" t="s">
         <v>593</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -8805,7 +8821,7 @@
       <c r="I141" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J141" s="9" t="s">
+      <c r="J141" s="8" t="s">
         <v>595</v>
       </c>
       <c r="K141" s="6" t="s">
@@ -8815,8 +8831,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -8828,7 +8844,7 @@
       <c r="D142" s="6">
         <v>141</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="E142" s="12" t="s">
         <v>597</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -8841,7 +8857,7 @@
       <c r="I142" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J142" s="9" t="s">
+      <c r="J142" s="8" t="s">
         <v>599</v>
       </c>
       <c r="K142" s="6" t="s">
@@ -8851,8 +8867,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -8864,7 +8880,7 @@
       <c r="D143" s="6">
         <v>142</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="9" t="s">
         <v>601</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -8877,7 +8893,7 @@
       <c r="I143" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J143" s="9" t="s">
+      <c r="J143" s="8" t="s">
         <v>603</v>
       </c>
       <c r="K143" s="6" t="s">
@@ -8903,15 +8919,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="3" max="4" width="66.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" customWidth="1"/>
+    <col min="3" max="4" width="66.54296875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>607</v>
       </c>
@@ -8946,7 +8962,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>617</v>
       </c>
@@ -8969,7 +8985,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>617</v>
       </c>
@@ -8992,7 +9008,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>617</v>
       </c>
@@ -9015,7 +9031,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>617</v>
       </c>
@@ -9038,7 +9054,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>626</v>
       </c>
@@ -9058,7 +9074,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>626</v>
       </c>
@@ -9078,7 +9094,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>626</v>
       </c>
@@ -9098,7 +9114,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>626</v>
       </c>
@@ -9118,7 +9134,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>617</v>
       </c>
@@ -9141,7 +9157,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>617</v>
       </c>
@@ -9164,7 +9180,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>617</v>
       </c>
@@ -9187,7 +9203,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>617</v>
       </c>
@@ -9210,7 +9226,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>617</v>
       </c>
@@ -9233,7 +9249,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>617</v>
       </c>
@@ -9256,7 +9272,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>617</v>
       </c>
@@ -9279,7 +9295,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>617</v>
       </c>
@@ -9302,7 +9318,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>617</v>
       </c>
@@ -9331,7 +9347,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>650</v>
       </c>
@@ -9351,7 +9367,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>650</v>
       </c>
@@ -9371,7 +9387,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>650</v>
       </c>
@@ -9391,7 +9407,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>626</v>
       </c>
@@ -9423,7 +9439,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>626</v>
       </c>
@@ -9449,7 +9465,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>626</v>
       </c>
@@ -9475,7 +9491,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>626</v>
       </c>
@@ -9501,7 +9517,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>650</v>
       </c>
@@ -9521,7 +9537,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>650</v>
       </c>
@@ -9541,7 +9557,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>650</v>
       </c>
@@ -9561,7 +9577,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>650</v>
       </c>
@@ -9581,7 +9597,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>617</v>
       </c>
@@ -9604,7 +9620,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>650</v>
       </c>
@@ -9624,7 +9640,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>650</v>
       </c>
@@ -9644,7 +9660,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>650</v>
       </c>
@@ -9664,7 +9680,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>650</v>
       </c>
@@ -9684,7 +9700,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>650</v>
       </c>
@@ -9704,7 +9720,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>650</v>
       </c>
@@ -9724,7 +9740,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>617</v>
       </c>
@@ -9747,7 +9763,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>650</v>
       </c>
@@ -9767,7 +9783,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>617</v>
       </c>
@@ -9790,7 +9806,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>650</v>
       </c>
@@ -9810,7 +9826,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>617</v>
       </c>
@@ -9833,7 +9849,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>650</v>
       </c>
@@ -9853,7 +9869,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>617</v>
       </c>
@@ -9876,7 +9892,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>650</v>
       </c>
@@ -9896,7 +9912,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>617</v>
       </c>
@@ -9919,7 +9935,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>650</v>
       </c>
@@ -9939,7 +9955,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>650</v>
       </c>
@@ -9959,7 +9975,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>650</v>
       </c>
@@ -9979,7 +9995,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>650</v>
       </c>
@@ -9999,7 +10015,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>650</v>
       </c>
@@ -10019,7 +10035,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>650</v>
       </c>
@@ -10039,7 +10055,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>650</v>
       </c>
@@ -10059,7 +10075,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>650</v>
       </c>
@@ -10079,7 +10095,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>650</v>
       </c>
@@ -10099,7 +10115,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>626</v>
       </c>
@@ -10119,7 +10135,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>626</v>
       </c>
@@ -10139,7 +10155,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>626</v>
       </c>
@@ -10159,7 +10175,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>626</v>
       </c>
@@ -10179,7 +10195,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>626</v>
       </c>
@@ -10199,7 +10215,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>626</v>
       </c>
@@ -10219,7 +10235,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>626</v>
       </c>
@@ -10239,7 +10255,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>626</v>
       </c>
@@ -10259,7 +10275,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>626</v>
       </c>
@@ -10279,7 +10295,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>617</v>
       </c>
@@ -10302,7 +10318,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>673</v>
       </c>
@@ -10325,7 +10341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>673</v>
       </c>
@@ -10348,7 +10364,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>673</v>
       </c>
@@ -10371,7 +10387,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>673</v>
       </c>
@@ -10394,7 +10410,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>673</v>
       </c>
@@ -10417,7 +10433,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>673</v>
       </c>
@@ -10440,7 +10456,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>673</v>
       </c>
@@ -10463,7 +10479,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>673</v>
       </c>
@@ -10486,7 +10502,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>673</v>
       </c>
@@ -10509,7 +10525,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>673</v>
       </c>
@@ -10532,7 +10548,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>673</v>
       </c>
@@ -10555,7 +10571,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>673</v>
       </c>
@@ -10578,7 +10594,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>626</v>
       </c>
@@ -10598,7 +10614,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>626</v>
       </c>
@@ -10618,7 +10634,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>626</v>
       </c>
@@ -10638,7 +10654,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>626</v>
       </c>
@@ -10658,7 +10674,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>626</v>
       </c>
@@ -10678,7 +10694,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>626</v>
       </c>
@@ -10698,7 +10714,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>626</v>
       </c>
@@ -10718,7 +10734,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>626</v>
       </c>
@@ -10738,7 +10754,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>626</v>
       </c>
@@ -10758,7 +10774,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>626</v>
       </c>
@@ -10778,7 +10794,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>626</v>
       </c>
@@ -10798,7 +10814,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>626</v>
       </c>
@@ -10818,7 +10834,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>626</v>
       </c>
@@ -10838,7 +10854,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>626</v>
       </c>
@@ -10858,7 +10874,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>626</v>
       </c>
@@ -10878,7 +10894,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>626</v>
       </c>
@@ -10898,7 +10914,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>626</v>
       </c>
@@ -10918,7 +10934,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>626</v>
       </c>
@@ -10938,7 +10954,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>626</v>
       </c>
@@ -10958,7 +10974,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>626</v>
       </c>
@@ -10978,7 +10994,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>626</v>
       </c>
@@ -10998,7 +11014,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>626</v>
       </c>
@@ -11018,7 +11034,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -11038,7 +11054,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>626</v>
       </c>
@@ -11058,7 +11074,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>626</v>
       </c>
@@ -11078,7 +11094,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>626</v>
       </c>
@@ -11098,7 +11114,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>626</v>
       </c>
@@ -11118,7 +11134,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>626</v>
       </c>
@@ -11138,7 +11154,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>626</v>
       </c>
@@ -11158,7 +11174,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>626</v>
       </c>
@@ -11178,7 +11194,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>626</v>
       </c>
@@ -11198,7 +11214,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>626</v>
       </c>
@@ -11218,7 +11234,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>626</v>
       </c>
@@ -11238,7 +11254,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>626</v>
       </c>
@@ -11258,7 +11274,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>626</v>
       </c>
@@ -11278,7 +11294,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>626</v>
       </c>
@@ -11298,7 +11314,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>626</v>
       </c>
@@ -11318,7 +11334,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>626</v>
       </c>
@@ -11338,7 +11354,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>626</v>
       </c>
@@ -11358,7 +11374,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>626</v>
       </c>
@@ -11378,7 +11394,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>626</v>
       </c>
@@ -11398,7 +11414,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>626</v>
       </c>
@@ -11418,7 +11434,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>626</v>
       </c>
@@ -11438,7 +11454,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>626</v>
       </c>
@@ -11458,7 +11474,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>626</v>
       </c>
@@ -11478,7 +11494,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>626</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>626</v>
       </c>
@@ -11518,7 +11534,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>626</v>
       </c>
@@ -11538,7 +11554,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>626</v>
       </c>
@@ -11558,7 +11574,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>626</v>
       </c>
@@ -11578,7 +11594,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>626</v>
       </c>
@@ -11598,7 +11614,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>626</v>
       </c>
@@ -11618,7 +11634,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>626</v>
       </c>
@@ -11638,7 +11654,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>626</v>
       </c>
@@ -11658,7 +11674,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>626</v>
       </c>
@@ -11678,7 +11694,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>626</v>
       </c>
@@ -11698,7 +11714,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>626</v>
       </c>
@@ -11718,7 +11734,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>626</v>
       </c>
@@ -11738,7 +11754,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>626</v>
       </c>
@@ -11758,7 +11774,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>626</v>
       </c>
@@ -11778,7 +11794,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>626</v>
       </c>
@@ -11798,7 +11814,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>626</v>
       </c>
@@ -11818,7 +11834,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>626</v>
       </c>
@@ -11838,7 +11854,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>626</v>
       </c>
@@ -11858,7 +11874,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>626</v>
       </c>
@@ -11878,7 +11894,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>626</v>
       </c>
@@ -11898,7 +11914,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>626</v>
       </c>
@@ -11918,7 +11934,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>626</v>
       </c>
@@ -11938,7 +11954,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>626</v>
       </c>
@@ -11958,7 +11974,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>626</v>
       </c>
@@ -11978,7 +11994,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>626</v>
       </c>
@@ -11998,7 +12014,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>626</v>
       </c>
@@ -12018,7 +12034,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>626</v>
       </c>
@@ -12038,7 +12054,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>626</v>
       </c>
@@ -12058,7 +12074,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>626</v>
       </c>
@@ -12078,7 +12094,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>626</v>
       </c>
@@ -12098,7 +12114,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>617</v>
       </c>
@@ -12118,7 +12134,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>617</v>
       </c>
@@ -12138,7 +12154,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>626</v>
       </c>
@@ -12158,7 +12174,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>626</v>
       </c>
@@ -12178,7 +12194,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>617</v>
       </c>
@@ -12198,7 +12214,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>617</v>
       </c>
@@ -12218,7 +12234,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>617</v>
       </c>
@@ -12238,7 +12254,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>617</v>
       </c>
@@ -12258,7 +12274,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>617</v>
       </c>
@@ -12278,7 +12294,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>617</v>
       </c>
@@ -12298,7 +12314,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>617</v>
       </c>
@@ -12318,7 +12334,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>617</v>
       </c>
@@ -12338,7 +12354,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>617</v>
       </c>
@@ -12358,7 +12374,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>617</v>
       </c>
@@ -12378,7 +12394,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>617</v>
       </c>
@@ -12398,7 +12414,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>626</v>
       </c>
@@ -12418,7 +12434,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>626</v>
       </c>
@@ -12438,7 +12454,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>626</v>
       </c>
@@ -12458,7 +12474,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>626</v>
       </c>
@@ -12478,7 +12494,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>617</v>
       </c>
@@ -12498,7 +12514,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>617</v>
       </c>
@@ -12518,7 +12534,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>617</v>
       </c>
@@ -12538,7 +12554,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>617</v>
       </c>
@@ -12558,7 +12574,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>617</v>
       </c>
@@ -12578,7 +12594,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>617</v>
       </c>
@@ -12598,7 +12614,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>617</v>
       </c>
@@ -12618,7 +12634,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>626</v>
       </c>
@@ -12638,7 +12654,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>617</v>
       </c>
@@ -12658,7 +12674,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>626</v>
       </c>
@@ -12678,7 +12694,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>617</v>
       </c>
@@ -12698,7 +12714,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>626</v>
       </c>
@@ -12718,7 +12734,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>617</v>
       </c>
@@ -12738,7 +12754,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>617</v>
       </c>
@@ -12758,7 +12774,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>617</v>
       </c>
@@ -12778,7 +12794,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>617</v>
       </c>
@@ -12798,7 +12814,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>626</v>
       </c>
@@ -12818,7 +12834,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>617</v>
       </c>
@@ -12838,7 +12854,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>626</v>
       </c>
@@ -12870,7 +12886,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>617</v>
       </c>
@@ -12902,7 +12918,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>617</v>
       </c>
@@ -12934,7 +12950,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>617</v>
       </c>
@@ -12954,7 +12970,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>626</v>
       </c>
@@ -12974,7 +12990,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>626</v>
       </c>
@@ -12994,7 +13010,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>626</v>
       </c>
@@ -13014,7 +13030,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>617</v>
       </c>
@@ -13046,7 +13062,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>617</v>
       </c>
@@ -13078,7 +13094,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>617</v>
       </c>
@@ -13098,7 +13114,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>617</v>
       </c>
@@ -13118,7 +13134,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>617</v>
       </c>
@@ -13138,7 +13154,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>617</v>
       </c>
@@ -13158,7 +13174,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>617</v>
       </c>
@@ -13178,7 +13194,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>617</v>
       </c>
@@ -13198,7 +13214,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>617</v>
       </c>
@@ -13218,7 +13234,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>617</v>
       </c>
@@ -13250,7 +13266,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>617</v>
       </c>
@@ -13282,7 +13298,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>617</v>
       </c>
@@ -13314,7 +13330,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>617</v>
       </c>
@@ -13346,7 +13362,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>617</v>
       </c>
@@ -13366,7 +13382,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>617</v>
       </c>
@@ -13386,7 +13402,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>617</v>
       </c>
@@ -13406,7 +13422,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>617</v>
       </c>
@@ -13426,7 +13442,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>617</v>
       </c>
@@ -13446,7 +13462,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>617</v>
       </c>
@@ -13466,7 +13482,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>617</v>
       </c>
@@ -13486,7 +13502,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>617</v>
       </c>
@@ -13506,7 +13522,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>617</v>
       </c>
@@ -13526,7 +13542,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>617</v>
       </c>
@@ -13546,7 +13562,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>617</v>
       </c>
@@ -13569,7 +13585,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>650</v>
       </c>
@@ -13589,7 +13605,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>650</v>
       </c>
@@ -13609,7 +13625,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>617</v>
       </c>
@@ -13632,7 +13648,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>673</v>
       </c>
@@ -13664,7 +13680,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>673</v>
       </c>
@@ -13690,7 +13706,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>673</v>
       </c>
@@ -13716,7 +13732,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>673</v>
       </c>
@@ -13748,7 +13764,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>673</v>
       </c>
@@ -13780,7 +13796,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>673</v>
       </c>
@@ -13812,7 +13828,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>673</v>
       </c>
@@ -13844,7 +13860,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>673</v>
       </c>
@@ -13864,7 +13880,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>673</v>
       </c>
@@ -13896,7 +13912,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>673</v>
       </c>
@@ -13916,7 +13932,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>673</v>
       </c>
@@ -13948,7 +13964,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>673</v>
       </c>
@@ -13980,7 +13996,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>673</v>
       </c>
@@ -14012,7 +14028,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>673</v>
       </c>
@@ -14044,7 +14060,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>673</v>
       </c>
@@ -14076,7 +14092,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>673</v>
       </c>
@@ -14096,7 +14112,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>673</v>
       </c>
@@ -14128,7 +14144,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>673</v>
       </c>
@@ -14148,7 +14164,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>673</v>
       </c>
@@ -14168,7 +14184,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>673</v>
       </c>
@@ -14188,7 +14204,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>626</v>
       </c>
@@ -14208,7 +14224,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>626</v>
       </c>
@@ -14228,7 +14244,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>626</v>
       </c>
@@ -14248,7 +14264,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>617</v>
       </c>
@@ -14271,7 +14287,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>626</v>
       </c>
@@ -14291,7 +14307,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>617</v>
       </c>
@@ -14314,7 +14330,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>617</v>
       </c>
@@ -14337,7 +14353,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>617</v>
       </c>
@@ -14360,7 +14376,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>626</v>
       </c>
@@ -14380,7 +14396,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>626</v>
       </c>
@@ -14400,7 +14416,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>626</v>
       </c>
@@ -14420,7 +14436,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>626</v>
       </c>
@@ -14440,7 +14456,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>626</v>
       </c>
@@ -14460,7 +14476,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>626</v>
       </c>
@@ -14486,7 +14502,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>626</v>
       </c>
@@ -14506,7 +14522,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>617</v>
       </c>
@@ -14529,7 +14545,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>617</v>
       </c>
@@ -14552,7 +14568,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>626</v>
       </c>
@@ -14572,7 +14588,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>626</v>
       </c>
@@ -14592,7 +14608,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>617</v>
       </c>
@@ -14615,7 +14631,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>617</v>
       </c>
@@ -14638,7 +14654,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>626</v>
       </c>
@@ -14658,7 +14674,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>626</v>
       </c>
@@ -14678,7 +14694,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>626</v>
       </c>
@@ -14698,7 +14714,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>626</v>
       </c>
@@ -14718,7 +14734,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>626</v>
       </c>
@@ -14738,7 +14754,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>626</v>
       </c>
@@ -14764,7 +14780,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>626</v>
       </c>
@@ -14784,7 +14800,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>626</v>
       </c>
@@ -14804,7 +14820,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>626</v>
       </c>
@@ -14824,7 +14840,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>626</v>
       </c>
@@ -14844,7 +14860,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>626</v>
       </c>
@@ -14864,7 +14880,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>626</v>
       </c>
@@ -14884,7 +14900,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>626</v>
       </c>
@@ -14904,7 +14920,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>626</v>
       </c>
@@ -14924,7 +14940,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>617</v>
       </c>
@@ -14959,7 +14975,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>673</v>
       </c>
@@ -14991,7 +15007,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>673</v>
       </c>
@@ -15023,7 +15039,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>617</v>
       </c>
@@ -15052,7 +15068,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>626</v>
       </c>
@@ -15072,7 +15088,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>626</v>
       </c>
@@ -15092,7 +15108,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>617</v>
       </c>
@@ -15115,7 +15131,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>617</v>
       </c>
@@ -15138,7 +15154,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>617</v>
       </c>
@@ -15161,7 +15177,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>617</v>
       </c>
@@ -15184,7 +15200,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>617</v>
       </c>
@@ -15207,7 +15223,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>617</v>
       </c>
@@ -15230,7 +15246,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>617</v>
       </c>
@@ -15253,7 +15269,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>673</v>
       </c>
@@ -15273,7 +15289,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>673</v>
       </c>
@@ -15293,7 +15309,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>673</v>
       </c>
@@ -15313,7 +15329,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>673</v>
       </c>
@@ -15333,7 +15349,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>673</v>
       </c>
@@ -15353,7 +15369,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>673</v>
       </c>
@@ -15373,7 +15389,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>673</v>
       </c>
@@ -15393,7 +15409,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>673</v>
       </c>
@@ -15413,7 +15429,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>673</v>
       </c>
@@ -15433,7 +15449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>673</v>
       </c>
@@ -15453,7 +15469,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>673</v>
       </c>
@@ -15473,7 +15489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>673</v>
       </c>
@@ -15493,7 +15509,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>673</v>
       </c>
@@ -15513,7 +15529,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>673</v>
       </c>
@@ -15533,7 +15549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>673</v>
       </c>
@@ -15553,7 +15569,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>673</v>
       </c>
@@ -15573,7 +15589,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>673</v>
       </c>
@@ -15593,7 +15609,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>673</v>
       </c>
@@ -15613,7 +15629,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>617</v>
       </c>
@@ -15642,7 +15658,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>617</v>
       </c>
@@ -15671,7 +15687,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>617</v>
       </c>
@@ -15694,7 +15710,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>617</v>
       </c>
@@ -15717,7 +15733,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>617</v>
       </c>
@@ -15740,7 +15756,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>617</v>
       </c>
@@ -15763,7 +15779,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>617</v>
       </c>
@@ -15798,7 +15814,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>617</v>
       </c>
@@ -15821,7 +15837,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>617</v>
       </c>
@@ -15850,7 +15866,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>617</v>
       </c>
@@ -15873,7 +15889,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>617</v>
       </c>
@@ -15902,7 +15918,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>617</v>
       </c>
@@ -15931,7 +15947,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>617</v>
       </c>
@@ -15954,7 +15970,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>617</v>
       </c>
@@ -15977,7 +15993,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>617</v>
       </c>
@@ -16000,7 +16016,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>617</v>
       </c>
@@ -16023,7 +16039,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>617</v>
       </c>
@@ -16058,7 +16074,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>617</v>
       </c>
@@ -16081,7 +16097,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>617</v>
       </c>
@@ -16110,7 +16126,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>617</v>
       </c>
@@ -16133,7 +16149,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>617</v>
       </c>
@@ -16156,7 +16172,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>617</v>
       </c>
@@ -16179,7 +16195,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>617</v>
       </c>
@@ -16210,15 +16226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -16467,15 +16474,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E91D62-195B-4F39-8A40-C6DABBBF482D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCEE38A5-5C7B-472C-B7CC-7CE69A756247}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16492,4 +16500,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E91D62-195B-4F39-8A40-C6DABBBF482D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-viz/inputs/report_outline.xlsx
+++ b/data-viz/inputs/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-gpp-report\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6486F-776D-4B3A-9DD2-F46ADDF8F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D485EA8-CDDE-4065-8B75-8F1C4356B464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{6CDB5189-70D4-4DC8-80AA-E85435BE4D53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CDB5189-70D4-4DC8-80AA-E85435BE4D53}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1099">
   <si>
     <t>ID</t>
   </si>
@@ -3263,6 +3263,90 @@
   </si>
   <si>
     <t>Freedom</t>
+  </si>
+  <si>
+    <t>COR_judges</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>COR_prosecutors</t>
+  </si>
+  <si>
+    <t>COR_pda</t>
+  </si>
+  <si>
+    <t>COR_police</t>
+  </si>
+  <si>
+    <t>JSE_rightsaware</t>
+  </si>
+  <si>
+    <t>JSE_access2info</t>
+  </si>
+  <si>
+    <t>JSE_access2assis</t>
+  </si>
+  <si>
+    <t>JSE_affordcosts</t>
+  </si>
+  <si>
+    <t>JSE_quickresol</t>
+  </si>
+  <si>
+    <t>JSE_fairoutcomes</t>
+  </si>
+  <si>
+    <t>JSE_equality</t>
+  </si>
+  <si>
+    <t>JSE_enforce</t>
+  </si>
+  <si>
+    <t>JSE_mediation</t>
+  </si>
+  <si>
+    <t>SEC_walking</t>
+  </si>
+  <si>
+    <t>SEC_home</t>
+  </si>
+  <si>
+    <t>SEC_street</t>
+  </si>
+  <si>
+    <t>SEC_children</t>
+  </si>
+  <si>
+    <t>SEC_women</t>
+  </si>
+  <si>
+    <t>SEC_lgbt</t>
+  </si>
+  <si>
+    <t>SEC_race</t>
+  </si>
+  <si>
+    <t>SEC_orgcrime</t>
+  </si>
+  <si>
+    <t>SEC_immigrant</t>
+  </si>
+  <si>
+    <t>LEP_safecom</t>
+  </si>
+  <si>
+    <t>LEP_safefam</t>
+  </si>
+  <si>
+    <t>LEP_policehelp</t>
+  </si>
+  <si>
+    <t>LEP_kindpol</t>
+  </si>
+  <si>
+    <t>LEP_lawacts</t>
   </si>
 </sst>
 </file>
@@ -3717,8 +3801,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3944,9 +4028,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>1071</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1072</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
@@ -3980,9 +4066,11 @@
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>1073</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1072</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
@@ -4016,9 +4104,11 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>1074</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1072</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -4052,9 +4142,11 @@
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>1075</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1072</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
@@ -4088,7 +4180,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>1076</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -4124,7 +4216,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>1077</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
@@ -4160,7 +4252,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>1078</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
@@ -4196,7 +4288,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>1079</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
@@ -4232,7 +4324,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>1080</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -4268,7 +4360,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>61</v>
+        <v>1081</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
@@ -4304,7 +4396,7 @@
         <v>64</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>65</v>
+        <v>1082</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
@@ -4340,7 +4432,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>69</v>
+        <v>1083</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
@@ -4376,7 +4468,7 @@
         <v>72</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>73</v>
+        <v>1084</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -4844,9 +4936,8 @@
         <v>137</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>1085</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>139</v>
       </c>
@@ -4880,7 +4971,7 @@
         <v>142</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>143</v>
+        <v>1086</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
@@ -4916,7 +5007,7 @@
         <v>147</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>148</v>
+        <v>1087</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
@@ -4952,7 +5043,7 @@
         <v>151</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>152</v>
+        <v>1088</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
@@ -4988,7 +5079,7 @@
         <v>155</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>156</v>
+        <v>1089</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
@@ -5024,7 +5115,7 @@
         <v>159</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>160</v>
+        <v>1090</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
@@ -5060,7 +5151,7 @@
         <v>163</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>164</v>
+        <v>1091</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
@@ -5096,7 +5187,7 @@
         <v>167</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>168</v>
+        <v>1092</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
@@ -5132,7 +5223,7 @@
         <v>171</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>172</v>
+        <v>1093</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6" t="s">
@@ -5168,7 +5259,7 @@
         <v>176</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>177</v>
+        <v>1094</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
@@ -5204,7 +5295,7 @@
         <v>180</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>181</v>
+        <v>1095</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
@@ -5240,7 +5331,7 @@
         <v>184</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>185</v>
+        <v>1096</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
@@ -5276,7 +5367,7 @@
         <v>188</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>189</v>
+        <v>1097</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
@@ -5312,7 +5403,7 @@
         <v>192</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>193</v>
+        <v>1098</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
@@ -16226,6 +16317,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -16474,16 +16574,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E91D62-195B-4F39-8A40-C6DABBBF482D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCEE38A5-5C7B-472C-B7CC-7CE69A756247}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16500,12 +16599,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E91D62-195B-4F39-8A40-C6DABBBF482D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>